--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>psiCrop</t>
-  </si>
-  <si>
-    <t>RUEzero</t>
   </si>
   <si>
     <t>Tbase</t>
@@ -254,6 +251,9 @@
   </si>
   <si>
     <t>Windspeed</t>
+  </si>
+  <si>
+    <t>RUEZero</t>
   </si>
 </sst>
 </file>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -801,7 +801,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B28">
         <v>1.95</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>90</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>0.23</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>4.9030000000000001E-9</v>
@@ -848,117 +848,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>44</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>45</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>46</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>47</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>49</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>50</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>51</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>52</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>53</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>54</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>59</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>60</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>61</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>62</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>63</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>64</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>65</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>66</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.35">
@@ -1727,28 +1727,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>73</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>74</v>
-      </c>
-      <c r="H1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">

--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\NBR\20. NBR\780 5T Growth model\780_growth_model\clone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\NBR\20. NBR\905 Nordic Beet Yield Challenge NBYC\clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -253,7 +253,7 @@
     <t>Windspeed</t>
   </si>
   <si>
-    <t>RUEZero</t>
+    <t>rue_zero</t>
   </si>
 </sst>
 </file>

--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>Albedo</t>
-  </si>
-  <si>
-    <t>Sbconstant</t>
   </si>
   <si>
     <t>TrialID</t>
@@ -254,6 +251,9 @@
   </si>
   <si>
     <t>rue_zero</t>
+  </si>
+  <si>
+    <t>SBconstant</t>
   </si>
 </sst>
 </file>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -609,63 +609,63 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B4">
-        <v>9.3500000000000007E-3</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>378.8</v>
+        <v>9.3500000000000007E-3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>378.8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1.27</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>2.715E-3</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2.715E-3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -673,170 +673,170 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>0.7</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>1.5E-5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>6.9999999999999994E-5</v>
+        <v>1.5E-5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>8.2000000000000003E-2</v>
+        <v>6.9999999999999994E-5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>1.48E-3</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>0.42</v>
+        <v>1.48E-3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>1150</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>381</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>700</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>3200</v>
+        <v>700</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>4.9099999999999998E-2</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>-1.6899999999999999E-4</v>
+        <v>4.9099999999999998E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>6.5559999999999993E-2</v>
+        <v>-1.6899999999999999E-4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>5.8659999999999997E-3</v>
+        <v>6.5559999999999993E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>-1500</v>
+        <v>5.8659999999999997E-3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>1.95</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>90</v>
+        <v>75</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4.9030000000000001E-9</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31">
-        <v>0.23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1">
-        <v>4.9030000000000001E-9</v>
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -856,109 +856,109 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>40</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>41</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>42</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>43</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>44</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>45</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>46</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>48</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>49</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>51</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>52</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>53</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>54</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>59</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>60</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>61</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>62</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>63</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>64</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>65</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.35">
@@ -1727,28 +1727,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>72</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>73</v>
-      </c>
-      <c r="H1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
